--- a/test_data/group_sheets/a1_report_g1.xlsx
+++ b/test_data/group_sheets/a1_report_g1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dane\dev\D2L-Spreadsheet-Automation\test_data\group_sheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAA8074C-BE46-40E0-B802-F8AB85B26C81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00BB8105-89B5-4E88-AD5B-43C9E0CCCACD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{48062A0B-DC7F-CE47-898B-7F5B0B124F1C}"/>
+    <workbookView xWindow="2880" yWindow="1932" windowWidth="17280" windowHeight="8964" xr2:uid="{48062A0B-DC7F-CE47-898B-7F5B0B124F1C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -595,9 +595,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>3911600</xdr:colOff>
+          <xdr:colOff>3909060</xdr:colOff>
           <xdr:row>9</xdr:row>
-          <xdr:rowOff>12700</xdr:rowOff>
+          <xdr:rowOff>15240</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -652,7 +652,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>1473200</xdr:colOff>
+          <xdr:colOff>1470660</xdr:colOff>
           <xdr:row>3</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -660,7 +660,7 @@
           <xdr:col>1</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>3</xdr:row>
-          <xdr:rowOff>203200</xdr:rowOff>
+          <xdr:rowOff>205740</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -710,7 +710,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>4178300</xdr:colOff>
+          <xdr:colOff>4175760</xdr:colOff>
           <xdr:row>5</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -718,7 +718,7 @@
           <xdr:col>1</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>6</xdr:row>
-          <xdr:rowOff>25400</xdr:rowOff>
+          <xdr:rowOff>22860</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -777,7 +777,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>4178300</xdr:colOff>
+          <xdr:colOff>4175760</xdr:colOff>
           <xdr:row>6</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -785,7 +785,7 @@
           <xdr:col>1</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>7</xdr:row>
-          <xdr:rowOff>25400</xdr:rowOff>
+          <xdr:rowOff>22860</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -844,13 +844,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>1435100</xdr:colOff>
+          <xdr:colOff>1432560</xdr:colOff>
           <xdr:row>9</xdr:row>
-          <xdr:rowOff>25400</xdr:rowOff>
+          <xdr:rowOff>22860</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>4445000</xdr:colOff>
+          <xdr:colOff>4442460</xdr:colOff>
           <xdr:row>9</xdr:row>
           <xdr:rowOff>228600</xdr:rowOff>
         </xdr:to>
@@ -902,13 +902,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>1435100</xdr:colOff>
+          <xdr:colOff>1432560</xdr:colOff>
           <xdr:row>12</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>4445000</xdr:colOff>
+          <xdr:colOff>4442460</xdr:colOff>
           <xdr:row>13</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -960,7 +960,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>4178300</xdr:colOff>
+          <xdr:colOff>4175760</xdr:colOff>
           <xdr:row>15</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -968,7 +968,7 @@
           <xdr:col>1</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>16</xdr:row>
-          <xdr:rowOff>25400</xdr:rowOff>
+          <xdr:rowOff>22860</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1027,7 +1027,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>4178300</xdr:colOff>
+          <xdr:colOff>4175760</xdr:colOff>
           <xdr:row>16</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -1035,7 +1035,7 @@
           <xdr:col>1</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>17</xdr:row>
-          <xdr:rowOff>25400</xdr:rowOff>
+          <xdr:rowOff>22860</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1094,7 +1094,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>4178300</xdr:colOff>
+          <xdr:colOff>4175760</xdr:colOff>
           <xdr:row>17</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -1102,7 +1102,7 @@
           <xdr:col>1</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>18</xdr:row>
-          <xdr:rowOff>25400</xdr:rowOff>
+          <xdr:rowOff>22860</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1284,7 +1284,7 @@
           <xdr:col>0</xdr:col>
           <xdr:colOff>1104900</xdr:colOff>
           <xdr:row>26</xdr:row>
-          <xdr:rowOff>12700</xdr:rowOff>
+          <xdr:rowOff>15240</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
@@ -1400,7 +1400,7 @@
           <xdr:col>0</xdr:col>
           <xdr:colOff>1104900</xdr:colOff>
           <xdr:row>31</xdr:row>
-          <xdr:rowOff>12700</xdr:rowOff>
+          <xdr:rowOff>15240</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
@@ -1456,7 +1456,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>4178300</xdr:colOff>
+          <xdr:colOff>4175760</xdr:colOff>
           <xdr:row>40</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -1464,7 +1464,7 @@
           <xdr:col>1</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>41</xdr:row>
-          <xdr:rowOff>25400</xdr:rowOff>
+          <xdr:rowOff>22860</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1525,7 +1525,7 @@
           <xdr:col>0</xdr:col>
           <xdr:colOff>1104900</xdr:colOff>
           <xdr:row>43</xdr:row>
-          <xdr:rowOff>12700</xdr:rowOff>
+          <xdr:rowOff>15240</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
@@ -1583,7 +1583,7 @@
           <xdr:col>0</xdr:col>
           <xdr:colOff>1104900</xdr:colOff>
           <xdr:row>46</xdr:row>
-          <xdr:rowOff>12700</xdr:rowOff>
+          <xdr:rowOff>15240</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
@@ -1639,13 +1639,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>1092200</xdr:colOff>
+          <xdr:colOff>1089660</xdr:colOff>
           <xdr:row>50</xdr:row>
           <xdr:rowOff>190500</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>4432300</xdr:colOff>
+          <xdr:colOff>4434840</xdr:colOff>
           <xdr:row>52</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -1699,7 +1699,7 @@
           <xdr:col>0</xdr:col>
           <xdr:colOff>1104900</xdr:colOff>
           <xdr:row>52</xdr:row>
-          <xdr:rowOff>12700</xdr:rowOff>
+          <xdr:rowOff>15240</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
@@ -1763,7 +1763,7 @@
           <xdr:col>1</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>56</xdr:row>
-          <xdr:rowOff>12700</xdr:rowOff>
+          <xdr:rowOff>15240</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1815,7 +1815,7 @@
           <xdr:col>0</xdr:col>
           <xdr:colOff>1104900</xdr:colOff>
           <xdr:row>56</xdr:row>
-          <xdr:rowOff>12700</xdr:rowOff>
+          <xdr:rowOff>15240</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
@@ -1879,7 +1879,7 @@
           <xdr:col>1</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>60</xdr:row>
-          <xdr:rowOff>12700</xdr:rowOff>
+          <xdr:rowOff>15240</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1931,7 +1931,7 @@
           <xdr:col>0</xdr:col>
           <xdr:colOff>1104900</xdr:colOff>
           <xdr:row>60</xdr:row>
-          <xdr:rowOff>12700</xdr:rowOff>
+          <xdr:rowOff>15240</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
@@ -1995,7 +1995,7 @@
           <xdr:col>1</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>64</xdr:row>
-          <xdr:rowOff>12700</xdr:rowOff>
+          <xdr:rowOff>15240</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2047,7 +2047,7 @@
           <xdr:col>0</xdr:col>
           <xdr:colOff>1104900</xdr:colOff>
           <xdr:row>64</xdr:row>
-          <xdr:rowOff>12700</xdr:rowOff>
+          <xdr:rowOff>15240</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
@@ -2111,7 +2111,7 @@
           <xdr:col>1</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>75</xdr:row>
-          <xdr:rowOff>12700</xdr:rowOff>
+          <xdr:rowOff>15240</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2163,7 +2163,7 @@
           <xdr:col>0</xdr:col>
           <xdr:colOff>1104900</xdr:colOff>
           <xdr:row>75</xdr:row>
-          <xdr:rowOff>12700</xdr:rowOff>
+          <xdr:rowOff>15240</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
@@ -2227,7 +2227,7 @@
           <xdr:col>1</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>79</xdr:row>
-          <xdr:rowOff>12700</xdr:rowOff>
+          <xdr:rowOff>15240</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2279,7 +2279,7 @@
           <xdr:col>0</xdr:col>
           <xdr:colOff>1104900</xdr:colOff>
           <xdr:row>79</xdr:row>
-          <xdr:rowOff>12700</xdr:rowOff>
+          <xdr:rowOff>15240</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
@@ -2343,7 +2343,7 @@
           <xdr:col>1</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>83</xdr:row>
-          <xdr:rowOff>12700</xdr:rowOff>
+          <xdr:rowOff>15240</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2395,7 +2395,7 @@
           <xdr:col>0</xdr:col>
           <xdr:colOff>1104900</xdr:colOff>
           <xdr:row>83</xdr:row>
-          <xdr:rowOff>12700</xdr:rowOff>
+          <xdr:rowOff>15240</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
@@ -2459,7 +2459,7 @@
           <xdr:col>1</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>87</xdr:row>
-          <xdr:rowOff>12700</xdr:rowOff>
+          <xdr:rowOff>15240</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2517,7 +2517,7 @@
           <xdr:col>1</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>91</xdr:row>
-          <xdr:rowOff>12700</xdr:rowOff>
+          <xdr:rowOff>15240</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2575,7 +2575,7 @@
           <xdr:col>1</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>95</xdr:row>
-          <xdr:rowOff>12700</xdr:rowOff>
+          <xdr:rowOff>15240</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2633,7 +2633,7 @@
           <xdr:col>1</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>99</xdr:row>
-          <xdr:rowOff>12700</xdr:rowOff>
+          <xdr:rowOff>15240</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2691,7 +2691,7 @@
           <xdr:col>1</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>103</xdr:row>
-          <xdr:rowOff>12700</xdr:rowOff>
+          <xdr:rowOff>15240</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2749,7 +2749,7 @@
           <xdr:col>1</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>107</xdr:row>
-          <xdr:rowOff>12700</xdr:rowOff>
+          <xdr:rowOff>15240</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2807,7 +2807,7 @@
           <xdr:col>1</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>111</xdr:row>
-          <xdr:rowOff>12700</xdr:rowOff>
+          <xdr:rowOff>15240</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2865,7 +2865,7 @@
           <xdr:col>1</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>115</xdr:row>
-          <xdr:rowOff>12700</xdr:rowOff>
+          <xdr:rowOff>15240</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2917,7 +2917,7 @@
           <xdr:col>0</xdr:col>
           <xdr:colOff>1104900</xdr:colOff>
           <xdr:row>91</xdr:row>
-          <xdr:rowOff>12700</xdr:rowOff>
+          <xdr:rowOff>15240</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
@@ -2975,7 +2975,7 @@
           <xdr:col>0</xdr:col>
           <xdr:colOff>1104900</xdr:colOff>
           <xdr:row>87</xdr:row>
-          <xdr:rowOff>12700</xdr:rowOff>
+          <xdr:rowOff>15240</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
@@ -3033,7 +3033,7 @@
           <xdr:col>0</xdr:col>
           <xdr:colOff>1104900</xdr:colOff>
           <xdr:row>95</xdr:row>
-          <xdr:rowOff>12700</xdr:rowOff>
+          <xdr:rowOff>15240</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
@@ -3091,7 +3091,7 @@
           <xdr:col>0</xdr:col>
           <xdr:colOff>1104900</xdr:colOff>
           <xdr:row>99</xdr:row>
-          <xdr:rowOff>12700</xdr:rowOff>
+          <xdr:rowOff>15240</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
@@ -3149,7 +3149,7 @@
           <xdr:col>0</xdr:col>
           <xdr:colOff>1104900</xdr:colOff>
           <xdr:row>103</xdr:row>
-          <xdr:rowOff>12700</xdr:rowOff>
+          <xdr:rowOff>15240</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
@@ -3207,7 +3207,7 @@
           <xdr:col>0</xdr:col>
           <xdr:colOff>1104900</xdr:colOff>
           <xdr:row>107</xdr:row>
-          <xdr:rowOff>12700</xdr:rowOff>
+          <xdr:rowOff>15240</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
@@ -3265,7 +3265,7 @@
           <xdr:col>0</xdr:col>
           <xdr:colOff>1104900</xdr:colOff>
           <xdr:row>111</xdr:row>
-          <xdr:rowOff>12700</xdr:rowOff>
+          <xdr:rowOff>15240</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
@@ -3323,7 +3323,7 @@
           <xdr:col>0</xdr:col>
           <xdr:colOff>1104900</xdr:colOff>
           <xdr:row>115</xdr:row>
-          <xdr:rowOff>12700</xdr:rowOff>
+          <xdr:rowOff>15240</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
@@ -3760,17 +3760,17 @@
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="94" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="10.69921875" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="12.83203125" customWidth="1"/>
-    <col min="2" max="2" width="75.6640625" customWidth="1"/>
+    <col min="1" max="1" width="12.796875" customWidth="1"/>
+    <col min="2" max="2" width="75.69921875" customWidth="1"/>
     <col min="4" max="5" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="25" customHeight="1">
+    <row r="1" spans="1:4" ht="25.05" customHeight="1">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -3798,7 +3798,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -3809,7 +3809,7 @@
         <v>69</v>
       </c>
       <c r="B7" s="4">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C7" t="s">
         <v>70</v>
@@ -3841,7 +3841,7 @@
         <v>75</v>
       </c>
       <c r="B11" s="4">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C11" t="s">
         <v>76</v>
@@ -3864,7 +3864,7 @@
     <row r="15" spans="1:4">
       <c r="D15" s="1">
         <f>B6+D7+D14</f>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -3891,9 +3891,9 @@
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>3911600</xdr:colOff>
+                    <xdr:colOff>3909060</xdr:colOff>
                     <xdr:row>9</xdr:row>
-                    <xdr:rowOff>12700</xdr:rowOff>
+                    <xdr:rowOff>15240</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -3914,12 +3914,12 @@
       <selection activeCell="A114" sqref="A114"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="10.69921875" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="58.33203125" customWidth="1"/>
-    <col min="5" max="5" width="10.83203125" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="26.6640625" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="10.83203125" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="58.296875" customWidth="1"/>
+    <col min="5" max="5" width="10.796875" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="26.69921875" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="10.796875" hidden="1" customWidth="1"/>
     <col min="8" max="8" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4074,7 +4074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="70" customHeight="1"/>
+    <row r="22" spans="1:7" ht="70.05" customHeight="1"/>
     <row r="23" spans="1:7">
       <c r="A23" s="5" t="s">
         <v>25</v>
@@ -4652,7 +4652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:7" ht="59" customHeight="1"/>
+    <row r="118" spans="1:7" ht="58.95" customHeight="1"/>
     <row r="119" spans="1:7">
       <c r="A119" s="3" t="s">
         <v>66</v>
@@ -4722,7 +4722,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>0</xdr:col>
-                    <xdr:colOff>1473200</xdr:colOff>
+                    <xdr:colOff>1470660</xdr:colOff>
                     <xdr:row>3</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -4730,7 +4730,7 @@
                     <xdr:col>1</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>3</xdr:row>
-                    <xdr:rowOff>203200</xdr:rowOff>
+                    <xdr:rowOff>205740</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -4744,7 +4744,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>0</xdr:col>
-                    <xdr:colOff>4178300</xdr:colOff>
+                    <xdr:colOff>4175760</xdr:colOff>
                     <xdr:row>5</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -4752,7 +4752,7 @@
                     <xdr:col>1</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>6</xdr:row>
-                    <xdr:rowOff>25400</xdr:rowOff>
+                    <xdr:rowOff>22860</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -4766,7 +4766,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>0</xdr:col>
-                    <xdr:colOff>4178300</xdr:colOff>
+                    <xdr:colOff>4175760</xdr:colOff>
                     <xdr:row>6</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -4774,7 +4774,7 @@
                     <xdr:col>1</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>7</xdr:row>
-                    <xdr:rowOff>25400</xdr:rowOff>
+                    <xdr:rowOff>22860</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -4788,13 +4788,13 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>0</xdr:col>
-                    <xdr:colOff>1435100</xdr:colOff>
+                    <xdr:colOff>1432560</xdr:colOff>
                     <xdr:row>9</xdr:row>
-                    <xdr:rowOff>25400</xdr:rowOff>
+                    <xdr:rowOff>22860</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>0</xdr:col>
-                    <xdr:colOff>4445000</xdr:colOff>
+                    <xdr:colOff>4442460</xdr:colOff>
                     <xdr:row>9</xdr:row>
                     <xdr:rowOff>228600</xdr:rowOff>
                   </to>
@@ -4810,13 +4810,13 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>0</xdr:col>
-                    <xdr:colOff>1435100</xdr:colOff>
+                    <xdr:colOff>1432560</xdr:colOff>
                     <xdr:row>12</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>0</xdr:col>
-                    <xdr:colOff>4445000</xdr:colOff>
+                    <xdr:colOff>4442460</xdr:colOff>
                     <xdr:row>13</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
@@ -4832,7 +4832,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>0</xdr:col>
-                    <xdr:colOff>4178300</xdr:colOff>
+                    <xdr:colOff>4175760</xdr:colOff>
                     <xdr:row>15</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -4840,7 +4840,7 @@
                     <xdr:col>1</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>16</xdr:row>
-                    <xdr:rowOff>25400</xdr:rowOff>
+                    <xdr:rowOff>22860</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -4854,7 +4854,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>0</xdr:col>
-                    <xdr:colOff>4178300</xdr:colOff>
+                    <xdr:colOff>4175760</xdr:colOff>
                     <xdr:row>16</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -4862,7 +4862,7 @@
                     <xdr:col>1</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>17</xdr:row>
-                    <xdr:rowOff>25400</xdr:rowOff>
+                    <xdr:rowOff>22860</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -4876,7 +4876,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>0</xdr:col>
-                    <xdr:colOff>4178300</xdr:colOff>
+                    <xdr:colOff>4175760</xdr:colOff>
                     <xdr:row>17</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -4884,7 +4884,7 @@
                     <xdr:col>1</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>18</xdr:row>
-                    <xdr:rowOff>25400</xdr:rowOff>
+                    <xdr:rowOff>22860</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -4922,7 +4922,7 @@
                     <xdr:col>0</xdr:col>
                     <xdr:colOff>1104900</xdr:colOff>
                     <xdr:row>26</xdr:row>
-                    <xdr:rowOff>12700</xdr:rowOff>
+                    <xdr:rowOff>15240</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
@@ -4966,7 +4966,7 @@
                     <xdr:col>0</xdr:col>
                     <xdr:colOff>1104900</xdr:colOff>
                     <xdr:row>31</xdr:row>
-                    <xdr:rowOff>12700</xdr:rowOff>
+                    <xdr:rowOff>15240</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
@@ -4986,7 +4986,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>0</xdr:col>
-                    <xdr:colOff>4178300</xdr:colOff>
+                    <xdr:colOff>4175760</xdr:colOff>
                     <xdr:row>40</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -4994,7 +4994,7 @@
                     <xdr:col>1</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>41</xdr:row>
-                    <xdr:rowOff>25400</xdr:rowOff>
+                    <xdr:rowOff>22860</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -5010,7 +5010,7 @@
                     <xdr:col>0</xdr:col>
                     <xdr:colOff>1104900</xdr:colOff>
                     <xdr:row>43</xdr:row>
-                    <xdr:rowOff>12700</xdr:rowOff>
+                    <xdr:rowOff>15240</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
@@ -5032,7 +5032,7 @@
                     <xdr:col>0</xdr:col>
                     <xdr:colOff>1104900</xdr:colOff>
                     <xdr:row>46</xdr:row>
-                    <xdr:rowOff>12700</xdr:rowOff>
+                    <xdr:rowOff>15240</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
@@ -5052,13 +5052,13 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>0</xdr:col>
-                    <xdr:colOff>1092200</xdr:colOff>
+                    <xdr:colOff>1089660</xdr:colOff>
                     <xdr:row>50</xdr:row>
                     <xdr:rowOff>190500</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>0</xdr:col>
-                    <xdr:colOff>4432300</xdr:colOff>
+                    <xdr:colOff>4434840</xdr:colOff>
                     <xdr:row>52</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
@@ -5076,7 +5076,7 @@
                     <xdr:col>0</xdr:col>
                     <xdr:colOff>1104900</xdr:colOff>
                     <xdr:row>52</xdr:row>
-                    <xdr:rowOff>12700</xdr:rowOff>
+                    <xdr:rowOff>15240</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
@@ -5104,7 +5104,7 @@
                     <xdr:col>1</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>56</xdr:row>
-                    <xdr:rowOff>12700</xdr:rowOff>
+                    <xdr:rowOff>15240</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -5120,7 +5120,7 @@
                     <xdr:col>0</xdr:col>
                     <xdr:colOff>1104900</xdr:colOff>
                     <xdr:row>56</xdr:row>
-                    <xdr:rowOff>12700</xdr:rowOff>
+                    <xdr:rowOff>15240</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
@@ -5148,7 +5148,7 @@
                     <xdr:col>1</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>60</xdr:row>
-                    <xdr:rowOff>12700</xdr:rowOff>
+                    <xdr:rowOff>15240</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -5164,7 +5164,7 @@
                     <xdr:col>0</xdr:col>
                     <xdr:colOff>1104900</xdr:colOff>
                     <xdr:row>60</xdr:row>
-                    <xdr:rowOff>12700</xdr:rowOff>
+                    <xdr:rowOff>15240</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
@@ -5192,7 +5192,7 @@
                     <xdr:col>1</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>64</xdr:row>
-                    <xdr:rowOff>12700</xdr:rowOff>
+                    <xdr:rowOff>15240</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -5208,7 +5208,7 @@
                     <xdr:col>0</xdr:col>
                     <xdr:colOff>1104900</xdr:colOff>
                     <xdr:row>64</xdr:row>
-                    <xdr:rowOff>12700</xdr:rowOff>
+                    <xdr:rowOff>15240</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
@@ -5236,7 +5236,7 @@
                     <xdr:col>1</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>75</xdr:row>
-                    <xdr:rowOff>12700</xdr:rowOff>
+                    <xdr:rowOff>15240</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -5252,7 +5252,7 @@
                     <xdr:col>0</xdr:col>
                     <xdr:colOff>1104900</xdr:colOff>
                     <xdr:row>75</xdr:row>
-                    <xdr:rowOff>12700</xdr:rowOff>
+                    <xdr:rowOff>15240</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
@@ -5280,7 +5280,7 @@
                     <xdr:col>1</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>79</xdr:row>
-                    <xdr:rowOff>12700</xdr:rowOff>
+                    <xdr:rowOff>15240</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -5296,7 +5296,7 @@
                     <xdr:col>0</xdr:col>
                     <xdr:colOff>1104900</xdr:colOff>
                     <xdr:row>79</xdr:row>
-                    <xdr:rowOff>12700</xdr:rowOff>
+                    <xdr:rowOff>15240</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
@@ -5324,7 +5324,7 @@
                     <xdr:col>1</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>83</xdr:row>
-                    <xdr:rowOff>12700</xdr:rowOff>
+                    <xdr:rowOff>15240</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -5340,7 +5340,7 @@
                     <xdr:col>0</xdr:col>
                     <xdr:colOff>1104900</xdr:colOff>
                     <xdr:row>83</xdr:row>
-                    <xdr:rowOff>12700</xdr:rowOff>
+                    <xdr:rowOff>15240</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
@@ -5368,7 +5368,7 @@
                     <xdr:col>1</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>87</xdr:row>
-                    <xdr:rowOff>12700</xdr:rowOff>
+                    <xdr:rowOff>15240</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -5390,7 +5390,7 @@
                     <xdr:col>1</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>91</xdr:row>
-                    <xdr:rowOff>12700</xdr:rowOff>
+                    <xdr:rowOff>15240</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -5412,7 +5412,7 @@
                     <xdr:col>1</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>95</xdr:row>
-                    <xdr:rowOff>12700</xdr:rowOff>
+                    <xdr:rowOff>15240</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -5434,7 +5434,7 @@
                     <xdr:col>1</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>99</xdr:row>
-                    <xdr:rowOff>12700</xdr:rowOff>
+                    <xdr:rowOff>15240</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -5456,7 +5456,7 @@
                     <xdr:col>1</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>103</xdr:row>
-                    <xdr:rowOff>12700</xdr:rowOff>
+                    <xdr:rowOff>15240</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -5478,7 +5478,7 @@
                     <xdr:col>1</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>107</xdr:row>
-                    <xdr:rowOff>12700</xdr:rowOff>
+                    <xdr:rowOff>15240</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -5500,7 +5500,7 @@
                     <xdr:col>1</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>111</xdr:row>
-                    <xdr:rowOff>12700</xdr:rowOff>
+                    <xdr:rowOff>15240</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -5522,7 +5522,7 @@
                     <xdr:col>1</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>115</xdr:row>
-                    <xdr:rowOff>12700</xdr:rowOff>
+                    <xdr:rowOff>15240</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -5538,7 +5538,7 @@
                     <xdr:col>0</xdr:col>
                     <xdr:colOff>1104900</xdr:colOff>
                     <xdr:row>91</xdr:row>
-                    <xdr:rowOff>12700</xdr:rowOff>
+                    <xdr:rowOff>15240</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
@@ -5560,7 +5560,7 @@
                     <xdr:col>0</xdr:col>
                     <xdr:colOff>1104900</xdr:colOff>
                     <xdr:row>87</xdr:row>
-                    <xdr:rowOff>12700</xdr:rowOff>
+                    <xdr:rowOff>15240</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
@@ -5582,7 +5582,7 @@
                     <xdr:col>0</xdr:col>
                     <xdr:colOff>1104900</xdr:colOff>
                     <xdr:row>95</xdr:row>
-                    <xdr:rowOff>12700</xdr:rowOff>
+                    <xdr:rowOff>15240</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
@@ -5604,7 +5604,7 @@
                     <xdr:col>0</xdr:col>
                     <xdr:colOff>1104900</xdr:colOff>
                     <xdr:row>99</xdr:row>
-                    <xdr:rowOff>12700</xdr:rowOff>
+                    <xdr:rowOff>15240</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
@@ -5626,7 +5626,7 @@
                     <xdr:col>0</xdr:col>
                     <xdr:colOff>1104900</xdr:colOff>
                     <xdr:row>103</xdr:row>
-                    <xdr:rowOff>12700</xdr:rowOff>
+                    <xdr:rowOff>15240</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
@@ -5648,7 +5648,7 @@
                     <xdr:col>0</xdr:col>
                     <xdr:colOff>1104900</xdr:colOff>
                     <xdr:row>107</xdr:row>
-                    <xdr:rowOff>12700</xdr:rowOff>
+                    <xdr:rowOff>15240</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
@@ -5670,7 +5670,7 @@
                     <xdr:col>0</xdr:col>
                     <xdr:colOff>1104900</xdr:colOff>
                     <xdr:row>111</xdr:row>
-                    <xdr:rowOff>12700</xdr:rowOff>
+                    <xdr:rowOff>15240</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
@@ -5692,7 +5692,7 @@
                     <xdr:col>0</xdr:col>
                     <xdr:colOff>1104900</xdr:colOff>
                     <xdr:row>115</xdr:row>
-                    <xdr:rowOff>12700</xdr:rowOff>
+                    <xdr:rowOff>15240</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>

--- a/test_data/group_sheets/a1_report_g1.xlsx
+++ b/test_data/group_sheets/a1_report_g1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dane\dev\D2L-Spreadsheet-Automation\test_data\group_sheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00BB8105-89B5-4E88-AD5B-43C9E0CCCACD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED21547C-A3A5-45BD-A982-123EB7D4BD44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2880" yWindow="1932" windowWidth="17280" windowHeight="8964" xr2:uid="{48062A0B-DC7F-CE47-898B-7F5B0B124F1C}"/>
+    <workbookView xWindow="3228" yWindow="2280" windowWidth="17280" windowHeight="8964" xr2:uid="{48062A0B-DC7F-CE47-898B-7F5B0B124F1C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -3760,7 +3760,7 @@
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="94" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.69921875" defaultRowHeight="15.6"/>
@@ -3841,7 +3841,7 @@
         <v>75</v>
       </c>
       <c r="B11" s="4">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C11" t="s">
         <v>76</v>
